--- a/Text/schmidt_lena_text.xlsx
+++ b/Text/schmidt_lena_text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dokumente\10_Studium_Hochschule_Hannover_Bachelor_Visuelle_Kommunikation\B3_Kurse_Wintersemester_2023_2024\04_Interaktive_Medien_Information_Interaktion_Andrea_Nikol_BVK_129_03_Projekt_03\ABGABE_FINAL_ADAPTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C81A9-B295-4FA2-9678-C0A64C8F4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02091F5-265F-4234-8C24-FE55080393A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Timecode</t>
   </si>
@@ -140,6 +140,81 @@
   </si>
   <si>
     <t>A steampunk spaceship, slightly round, with several windows, sits on a lit landing platform. The scene is foggy and steamy, and the lighting is dark and cool. The spaceship is made of copper, brass, gears, valves, and leather, and the landing platform is made of concrete. The spaceship should match the interior image.</t>
+  </si>
+  <si>
+    <t>Raumschiff im All</t>
+  </si>
+  <si>
+    <t>A realistic image of a round, steam-powered spaceship in space. The spaceship is floating in the vastness of space, with the Earth visible in the background. The spaceship is made up of two connected, circular tubes. These tow tubes are each connected in the middle by additional tubes. The spaceship is floating freely in space. The spaceship is adapted to the steampunk style in comparison to the film. It is made up of elements that are characteristic of steampunk, such as copper and brass plates and tubes, gears, valves, belts, and leather elements. The machinery of the spaceship is steam-powered, so the spaceship is emitting steam. The spaceship is illuminated by the faint light of the Earth. The entire scene has a peaceful, mystical, and futuristic atmosphere.</t>
+  </si>
+  <si>
+    <t>Astronauten auf dem Mond</t>
+  </si>
+  <si>
+    <t>Group of steampunk astronauts, suits are made of copper, brass, leather, valves, gears, pipes and glass, steampunk elements, they carry steam-powered oxygen tanks on their backs, background is a black void of space, they stand on the surface of the moon.</t>
+  </si>
+  <si>
+    <t>Konferenzraum</t>
+  </si>
+  <si>
+    <t>Astronauten vor dem Monolithen</t>
+  </si>
+  <si>
+    <t>Raumschiff der Jupitermission</t>
+  </si>
+  <si>
+    <t>Steuerung HAL9000</t>
+  </si>
+  <si>
+    <t>Realistic and detailed image, steampunk HAL 9000 computer, large, square machine, made of copper, brass, gears, pipes, valves, steam rises from vents, bright red-light shines from the center, installed in the cockpit of a steampunk spaceship.</t>
+  </si>
+  <si>
+    <t>Raumschiff Durchgang</t>
+  </si>
+  <si>
+    <t>A long, cylindrical passageway in a steampunk-style spaceship. The walls are made of copper and brass plates, with rivets and bolts holding them together. There are pipes and valves running along the walls, and the ceiling is covered in gears and cogs. A lone astronaut walks through the passageway, wearing a steampunk-style spacesuit. The suit is made of copper, brass, and leather, with a large, glass helmet. The astronaut’s backpack contains a steam-powered oxygen generator. The passageway is well-lit by a series of brass lamps hanging from the ceiling. There are no windows, and the only way in or out is through a large, copper door at the end of the passageway.</t>
+  </si>
+  <si>
+    <t>Raumanzüge Astronauten</t>
+  </si>
+  <si>
+    <t>Festplatten Server HAL 9000</t>
+  </si>
+  <si>
+    <t>steampunk, hal 9000, storage room, computer, hard drives, copper, brass, pipes, valves, belts, gears, round hatch, red glows, steam</t>
+  </si>
+  <si>
+    <t>Reise durch Zeit und Raum</t>
+  </si>
+  <si>
+    <t>A realistic and futuristic image of a colorful spectacle in a steampunk-style room. The room is full of copper and brass pipes and lamps and has round windows that allow a view of space. Steam from the pipes fills the room, creating a bright, colorful spectacle. The lamps also radiate in bright colors. The room is generally dimly lit.</t>
+  </si>
+  <si>
+    <t>Viktorianischer Raum</t>
+  </si>
+  <si>
+    <t>A large bedroom in a Victorian style with a four-poster bed, a table with two chairs, and a small round spaceship capsule. The room is decorated with steampunk elements, such as copper and brass plates and pipes, valves, belts, and gears. The room has a steamy atmosphere, and the light is bright.</t>
+  </si>
+  <si>
+    <t>Viktorianischer Raum mit Moonolith</t>
+  </si>
+  <si>
+    <t>A Victorian-style room with steampunk elements. The room is filled with copper and brass plates and gears, leather, and steam. In the center of the room is a large, rectangular, high steampunk monolith. The monolith is also made of copper and brass, and it has gears, valves, and other steampunk elements. The view is from the bed, looking out into the room. The monolith is directly in front of the bed. The room is well-lit, and there is a light haze of steam in the air.</t>
+  </si>
+  <si>
+    <t>Wiedergeburt (Serie 01/02)</t>
+  </si>
+  <si>
+    <t>A close-up portrait of a steam-powered mechanical figure in the style of the film “2001: A Space Odyssey”. The figure is inspired by the mechanical doll from the film “Hugo Cabret”. The figure’s face is made of a smooth copper or brass plate, with gears and pipes visible through the eyes. The body is made of a frame of copper and brass pipes, with the steam engine in the center. The engine is powered by HAL9000, which is represented by a red light. The figure is standing upright, with the head facing forward. The body is slightly turned to the side, so that the steam engine can be seen. The background is black, with the red light of the figure providing the only illumination.</t>
+  </si>
+  <si>
+    <t>Wiedergeburt (Serie 02/02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A realistic portrait of a steam-powered, mechanical figure made of copper and brass elements, representing the Rebirth figure from the film “2001: A Space Odyssey” by Stanley Kubrick. The figure is inspired by the mechanical doll from the film “Hugo Cabret” by Martin Scorsese from 2011. In comparison to the film “2001: A Space Odyssey”, the figure is adapted in the steampunk style and consists of elements characteristic of the style, such as copper and brass plates and pipes, gears, valves, belts and additional leather elements. The figure’s face which is clearly visible, consists of a smooth copper and brass plate. The eyes reveal the interior of the machine, with gears and pipes. The body consists if a frame made of copper and brass pipes, through which the interior of the figure can be seen. Inside is the steam-powered machine, in the center of which the red light of the artificial intelligence HAL9000 from the film “2001: A Space Odyssey” by Stanley Kubrick shines. The machine also emits steam. The red light from inside the figure illuminates the image, the background behind the figure is black. The person can be seen with head and upper body, so the perspective is close </t>
+  </si>
+  <si>
+    <t>Diese Adaption transformiert die moderne Welt der Raumfahrt aus dem Film: „2001: A Space Odyssey“ in den Steampunk Stil. Dazu wird das Design des viktorianischen Zeitalters, der Zeit der Industrialisierung, mit futuristischen Elementen verschmolzen. So entsteht eine Welt moderner, dampfgetriebener Hightech-Raumfahrt.</t>
   </si>
 </sst>
 </file>
@@ -232,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -265,6 +340,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -483,10 +559,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -533,7 +609,9 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
@@ -606,9 +684,13 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -663,11 +745,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -677,9 +759,13 @@
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -696,16 +782,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
@@ -744,9 +834,13 @@
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -770,9 +864,13 @@
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -781,9 +879,13 @@
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -807,9 +909,13 @@
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -848,9 +954,13 @@
       <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -874,9 +984,13 @@
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
@@ -885,9 +999,13 @@
       <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
@@ -896,9 +1014,13 @@
       <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -907,27 +1029,50 @@
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>140</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
